--- a/trend_results/Rivers/TurakinaatONeillsBridge_0c38dab71b.xlsx
+++ b/trend_results/Rivers/TurakinaatONeillsBridge_0c38dab71b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.905168800117927</v>
+        <v>0.094831199882073</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.039694026001103</v>
+        <v>0.9603059739988969</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0001477309962485</v>
+        <v>0.999852269003751</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.59675202974633</v>
+        <v>0.977683176951572</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0215827338129496</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0.517985611510791</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0043101409233761</v>
+        <v>0.0115515329419439</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0535712160495521</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0300277911222519</v>
+        <v>0.0242144264344622</v>
       </c>
       <c r="N28" t="n">
-        <v>2.15507046168808</v>
+        <v>2.88788323548598</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2993,7 +2993,11 @@
           <t>Tura_1b</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3003,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3018,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.59675202974633</v>
+        <v>0.6987234986941681</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0.850931677018634</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>78.56999999999999</v>
+        <v>10.53</v>
       </c>
       <c r="K29" t="n">
-        <v>1.53410021244181</v>
+        <v>0.0096372031662267</v>
       </c>
       <c r="L29" t="n">
-        <v>-12.2382957866164</v>
+        <v>-0.0300068461889548</v>
       </c>
       <c r="M29" t="n">
-        <v>6.97486617805709</v>
+        <v>0.0401373626373618</v>
       </c>
       <c r="N29" t="n">
-        <v>1.95252667995649</v>
+        <v>0.09152139758999719</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3051,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3080,7 +3084,11 @@
           <t>Tura_1b</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3090,11 +3098,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3105,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.95679463351315</v>
+        <v>1.07198910380773e-07</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.0365853658536585</v>
       </c>
       <c r="H30" t="n">
+        <v>0.359756097560976</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>4.169</v>
+        <v>0.031</v>
       </c>
       <c r="K30" t="n">
-        <v>0.209770510872874</v>
+        <v>0.0016141360602402</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0473168910484294</v>
+        <v>0.0011491879959249</v>
       </c>
       <c r="M30" t="n">
-        <v>0.33837625750905</v>
+        <v>0.0020908959945857</v>
       </c>
       <c r="N30" t="n">
-        <v>5.03167452321598</v>
+        <v>5.20689051690386</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3138,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3167,7 +3175,11 @@
           <t>Tura_1b</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3177,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3192,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.015911563693245</v>
+        <v>0.992918260088721</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.682926829268293</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2775</v>
+        <v>130.5</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.02226728844404</v>
+        <v>-5.98906885992756</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0362900358203877</v>
+        <v>-10.1306795889867</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.013922367957481</v>
+        <v>-2.23215058684891</v>
       </c>
       <c r="N31" t="n">
-        <v>-8.024248087942359</v>
+        <v>-4.58932479687935</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3254,7 +3266,11 @@
           <t>Tura_1b</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3264,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.158988088490775</v>
+        <v>0.8821323239282099</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.446540880503145</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8</v>
+        <v>0.691823899371069</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J32" t="n">
-        <v>88</v>
+        <v>0.0144965952250043</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.609586195054947</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-2.55828352839405</v>
+        <v>-0.0003863503859681</v>
       </c>
       <c r="M32" t="n">
-        <v>0.370833898195588</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.692711585289712</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3312,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3341,7 +3357,11 @@
           <t>Tura_1b</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3351,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.735200595787496</v>
+        <v>0.0518838025386802</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.316129032258064</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9</v>
+        <v>0.219354838709677</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>4.23</v>
+        <v>0.008</v>
       </c>
       <c r="K33" t="n">
-        <v>0.025320623916811</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0310045278447748</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.106045737605084</v>
+        <v>0.0001250712715225</v>
       </c>
       <c r="N33" t="n">
-        <v>0.598596310090095</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3399,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3428,7 +3448,1075 @@
           <t>Tura_1b</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0517321397793211</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.335483870967742</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.625806451612903</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.99924548081493</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.52760736196319</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0199408553230208</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0100294528118901</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.029987684729064</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.243478086972171</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.303515969103436</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.103658536585366</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.1825</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0005378215948685</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0013378004183812</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8288712828945199</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.731707317073171</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.7465000000000001</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0042323983176264</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0110929542361271</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0029559592583081</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.566965615221229</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.018915918518047</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.664634146341463</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0018241038736573</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0003480412096167</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0029354253016417</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.00450975127184</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.716392610204431</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0060975609756097</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.932926829268293</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0405273656239514</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.181121758417935</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0826111329724985</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.410196008339589</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0043101409233761</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0535712160495521</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0300277911222519</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.15507046168808</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.53410021244181</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-12.2382957866164</v>
+      </c>
+      <c r="M41" t="n">
+        <v>6.97486617805709</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.95252667995649</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.95679463351315</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.169</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.209770510872874</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0473168910484294</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.33837625750905</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5.03167452321598</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.015911563693245</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.2775</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.02226728844404</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0362900358203877</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.013922367957481</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-8.024248087942359</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.158988088490775</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>88</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.609586195054947</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-2.55828352839405</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.370833898195588</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.692711585289712</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Turakina at ONeills Bridge</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.735200595787496</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.025320623916811</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.0310045278447748</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.106045737605084</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.598596310090095</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1790573</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5566998</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Tura_1b</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/TurakinaatONeillsBridge_0c38dab71b.xlsx
+++ b/trend_results/Rivers/TurakinaatONeillsBridge_0c38dab71b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.544015091494445</v>
+        <v>0.000454738109657</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7307692307692309</v>
+        <v>0.7</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.118642691415313</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0582184992986731</v>
+        <v>-0.186759581587967</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08489283818479459</v>
+        <v>-0.0565723088951119</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-40.9112729018321</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.094831199882073</v>
+        <v>0.001302608689696</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.982142857142857</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.84</v>
+        <v>10.695</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0734708524558151</v>
+        <v>-0.38870843337335</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.149144507605807</v>
+        <v>-0.587684269781008</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0143515416739254</v>
+        <v>-0.18771132317784</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.677775391658811</v>
+        <v>-3.63448745557129</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0157916049778778</v>
+        <v>0.06739856441563311</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.596491228070175</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.036</v>
+        <v>0.039</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0027975531981085</v>
+        <v>0.0016546396909437</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006209763374053</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0048829560598184</v>
+        <v>0.0037277375157212</v>
       </c>
       <c r="N4" t="n">
-        <v>7.77098110585697</v>
+        <v>4.24266587421485</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.616440658540124</v>
+        <v>0.0319821596906557</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H5" t="n">
-        <v>0.736842105263158</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.66328125</v>
+        <v>36.9276917663617</v>
       </c>
       <c r="L5" t="n">
-        <v>-16.7281008518585</v>
+        <v>2.18900527272037</v>
       </c>
       <c r="M5" t="n">
-        <v>13.414146241962</v>
+        <v>144.084371531502</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.3291015625</v>
+        <v>40.579881061936</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.43305495369765</v>
+        <v>0.106985443243851</v>
       </c>
       <c r="G6" t="n">
-        <v>0.442307692307692</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7692307692307691</v>
+        <v>0.75</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0164816174797761</v>
+        <v>0.0210734973128914</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.000146005514217</v>
+        <v>0.0006905248883552</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0025796721964193</v>
+        <v>-0.0006389585057478</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0012995443879223</v>
+        <v>0.0053438507321381</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.885868843857028</v>
+        <v>3.27674556388356</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.277378546621421</v>
+        <v>0.123938596981719</v>
       </c>
       <c r="G7" t="n">
-        <v>0.315789473684211</v>
+        <v>0.245614035087719</v>
       </c>
       <c r="H7" t="n">
-        <v>0.350877192982456</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1043,16 +1043,16 @@
         <v>0.01</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.0005005167529838</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0011995073891625</v>
+        <v>0.002094972426624</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>5.00516752983858</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1111,39 +1111,39 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.268230964605198</v>
+        <v>0.0041884701961588</v>
       </c>
       <c r="G8" t="n">
-        <v>0.315789473684211</v>
+        <v>0.245614035087719</v>
       </c>
       <c r="H8" t="n">
-        <v>0.649122807017544</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.194</v>
+        <v>0.268</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.0228812644869546</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.0005773578214252</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0295144916565592</v>
+        <v>0.0594552845954309</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>8.53778525632635</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1202,39 +1202,39 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.5</v>
+        <v>0.0001768306135849</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.807017543859649</v>
+        <v>0.8545454545454541</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.32</v>
+        <v>8.25</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.118963468309859</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0614762233262774</v>
+        <v>-0.173928571428572</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0592774806350063</v>
+        <v>-0.0698980308776833</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>-1.4419814340589</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0414729813018984</v>
+        <v>0.0010457463302387</v>
       </c>
       <c r="G10" t="n">
-        <v>0.105263157894737</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="H10" t="n">
-        <v>0.842105263157895</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.215</v>
+        <v>0.307</v>
       </c>
       <c r="K10" t="n">
-        <v>0.007929096638655399</v>
+        <v>0.0337822802197802</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.000933747724915</v>
+        <v>0.0072055585851925</v>
       </c>
       <c r="M10" t="n">
-        <v>0.036917223718696</v>
+        <v>0.0723460054293012</v>
       </c>
       <c r="N10" t="n">
-        <v>3.68795192495603</v>
+        <v>11.0040000715897</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1384,35 +1384,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.589119962976633</v>
+        <v>0.0002532707423461</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.655172413793103</v>
+        <v>0.87719298245614</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.125160942488557</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.00686813186813</v>
+        <v>0.08133396031212051</v>
       </c>
       <c r="M11" t="n">
-        <v>1.00252482507803</v>
+        <v>0.20970847439078</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>15.4519682084639</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.439914580005915</v>
+        <v>6.63206440007515e-05</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8245614035087721</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.74</v>
+        <v>0.108</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0058472506127327</v>
+        <v>0.025977793040293</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.040114256594742</v>
+        <v>0.0147917224747959</v>
       </c>
       <c r="M12" t="n">
-        <v>0.047126758079618</v>
+        <v>0.0384609230599242</v>
       </c>
       <c r="N12" t="n">
-        <v>0.790169001720648</v>
+        <v>24.0535120743454</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.234843971633758</v>
+        <v>0.0041881354825442</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H13" t="n">
-        <v>0.842105263157895</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.095</v>
+        <v>15.1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0031692123094297</v>
+        <v>4.69419156149302</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0059318594753649</v>
+        <v>0.866296989605402</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0123047946247684</v>
+        <v>10.5505815298838</v>
       </c>
       <c r="N13" t="n">
-        <v>3.33601295729442</v>
+        <v>31.0873613343908</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.5</v>
+        <v>0.050761803336555</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0175438596491228</v>
+        <v>0.009900990099009899</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9649122807017541</v>
+        <v>0.6039603960396041</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>9.880000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0078296217998018</v>
+        <v>-0.012055406342008</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.04552461344931</v>
+        <v>-0.040993896107986</v>
       </c>
       <c r="M14" t="n">
-        <v>0.830162816339398</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.0792471842085207</v>
+        <v>-4.01846878066932</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.66538553883317</v>
+        <v>0.350584946985577</v>
       </c>
       <c r="G15" t="n">
-        <v>0.009900990099009899</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.623762376237624</v>
+        <v>0.860869565217391</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4</v>
+        <v>10.53</v>
       </c>
       <c r="K15" t="n">
-        <v>0.004969387755102</v>
+        <v>-0.0062414559125086</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0116321656050955</v>
+        <v>-0.0466791327550695</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0276781798933995</v>
+        <v>0.0399855431355233</v>
       </c>
       <c r="N15" t="n">
-        <v>1.24234693877551</v>
+        <v>-0.0592730855888759</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9603059739988969</v>
+        <v>0.0170475562259164</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.843478260869565</v>
+        <v>0.47008547008547</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.49</v>
+        <v>0.035</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0451545329670333</v>
+        <v>0.0010231092436974</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0012370746968017</v>
+        <v>0.0002794553574417</v>
       </c>
       <c r="M16" t="n">
-        <v>0.120833800702366</v>
+        <v>0.0019961230510772</v>
       </c>
       <c r="N16" t="n">
-        <v>0.430453126473149</v>
+        <v>2.92316926770709</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0753098526049351</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.008547008547008499</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.632478632478632</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0073271791688806</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.47008547008547</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>0.034</v>
+        <v>110</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0013994252873563</v>
+        <v>6.14818753588392</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003332370748259</v>
+        <v>-0.366995379478991</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0019943802778574</v>
+        <v>20.2139708960142</v>
       </c>
       <c r="N17" t="n">
-        <v>4.11595672751859</v>
+        <v>5.58926139625811</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,14 +2010,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.890642121442876</v>
+        <v>0.0026811429176816</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.518181818181818</v>
       </c>
       <c r="H18" t="n">
-        <v>0.658119658119658</v>
+        <v>0.672727272727273</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J18" t="n">
-        <v>114</v>
+        <v>0.0124945244317745</v>
       </c>
       <c r="K18" t="n">
-        <v>-4.27967808920206</v>
+        <v>0.0010017351777332</v>
       </c>
       <c r="L18" t="n">
-        <v>-11.1818270723901</v>
+        <v>8.72109157775074e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>1.41531643861054</v>
+        <v>0.0018985765097348</v>
       </c>
       <c r="N18" t="n">
-        <v>-3.75410358701935</v>
+        <v>8.01739340463253</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,46 +2101,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.340875987317653</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.264957264957265</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.273504273504274</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on two censored values</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0.0856726276128506</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.553571428571429</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.633928571428571</v>
-      </c>
-      <c r="I19" t="n">
-        <v>22</v>
-      </c>
       <c r="J19" t="n">
-        <v>0.010354710875003</v>
+        <v>0.01</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0004276151595006</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0009938114822334999</v>
+        <v>0.0003498795116753</v>
       </c>
       <c r="N19" t="n">
-        <v>4.12966778756636</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.617473371596158</v>
+        <v>0.0025762163561976</v>
       </c>
       <c r="G20" t="n">
-        <v>0.256410256410256</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="H20" t="n">
-        <v>0.282051282051282</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01</v>
+        <v>0.218</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0007024038461538</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0091551005539771</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>0.32220359915314</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.188905146014493</v>
+        <v>0.857977698136852</v>
       </c>
       <c r="G21" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.641025641025641</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1789</v>
+        <v>8.19</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.0124829118250168</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0045826100326412</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0047934486125099</v>
+        <v>0.0299876847290641</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.152416505799961</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Tura_1b</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2385,35 +2381,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.999852269003751</v>
+        <v>0.0035592235256619</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.11965811965812</v>
       </c>
       <c r="H22" t="n">
-        <v>0.615384615384615</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>8.199999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="K22" t="n">
-        <v>0.035601583917149</v>
+        <v>0.0040137362637362</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0179908686855044</v>
+        <v>0.0001612462220543</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0498521383075522</v>
+        <v>0.0124018573761661</v>
       </c>
       <c r="N22" t="n">
-        <v>0.434165657526207</v>
+        <v>1.63825969948419</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Tura_1b</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2472,35 +2472,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0306283234839829</v>
+        <v>0.0054917388871604</v>
       </c>
       <c r="G23" t="n">
-        <v>0.11965811965812</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.760683760683761</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.211</v>
+        <v>0.76</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0011916802610114</v>
+        <v>0.0283397991784573</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.012328766786974</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0044084333619229</v>
+        <v>0.0478479703237773</v>
       </c>
       <c r="N23" t="n">
-        <v>0.564777374886929</v>
+        <v>3.72892094453386</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.616811213287275</v>
+        <v>0.0004701098044984</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.533898305084746</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14</v>
+        <v>0.102</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0060021068692115</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.399835796387521</v>
+        <v>0.0028683644211621</v>
       </c>
       <c r="M24" t="n">
-        <v>0.166411804920007</v>
+        <v>0.0096493119061363</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>5.884418499227</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.269037051418514</v>
+        <v>0.0064679423579407</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H25" t="n">
-        <v>0.829059829059829</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.72</v>
+        <v>11.6</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0057025761124121</v>
+        <v>0.598225659690629</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0060805623744153</v>
+        <v>0.111524655539099</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0211938639973704</v>
+        <v>1.79101463683254</v>
       </c>
       <c r="N25" t="n">
-        <v>0.792024460057243</v>
+        <v>5.1571177559537</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0435328813341987</v>
+        <v>0.470290391740816</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0201342281879195</v>
       </c>
       <c r="H26" t="n">
-        <v>0.709401709401709</v>
+        <v>0.496644295302013</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.095</v>
+        <v>0.32</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0025025693730729</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001052978521558</v>
+        <v>-0.0069857171778512</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0053175614194722</v>
+        <v>0.008765000093178399</v>
       </c>
       <c r="N26" t="n">
-        <v>2.63428355060313</v>
+        <v>0</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.489339088240122</v>
+        <v>0.267588849517939</v>
       </c>
       <c r="G27" t="n">
-        <v>0.008547008547008499</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9401709401709401</v>
+        <v>0.8497109826589599</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>9.470000000000001</v>
+        <v>10.49</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0055600117096018</v>
+        <v>-0.0100030862009898</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.215255036845418</v>
+        <v>-0.0447519622758971</v>
       </c>
       <c r="M27" t="n">
-        <v>0.265168962448804</v>
+        <v>0.0199122795257001</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0587118448743597</v>
+        <v>-0.095358305061867</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.977683176951572</v>
+        <v>4.76595813630854e-08</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0215827338129496</v>
+        <v>0.0340909090909091</v>
       </c>
       <c r="H28" t="n">
-        <v>0.517985611510791</v>
+        <v>0.340909090909091</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4</v>
+        <v>0.032</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0115515329419439</v>
+        <v>0.001332320092807</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.0009997127315574</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0242144264344622</v>
+        <v>0.0016640224947352</v>
       </c>
       <c r="N28" t="n">
-        <v>2.88788323548598</v>
+        <v>4.163500290022</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.6987234986941681</v>
+        <v>0.881052154964866</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H29" t="n">
-        <v>0.850931677018634</v>
+        <v>0.676136363636364</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>10.53</v>
+        <v>144.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0096372031662267</v>
+        <v>-3.15691043707494</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0300068461889548</v>
+        <v>-6.9424106515999</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0401373626373618</v>
+        <v>1.51276177867623</v>
       </c>
       <c r="N29" t="n">
-        <v>0.09152139758999719</v>
+        <v>-2.18471310524217</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.07198910380773e-07</v>
+        <v>0.558352428436659</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0365853658536585</v>
+        <v>0.42603550295858</v>
       </c>
       <c r="H30" t="n">
-        <v>0.359756097560976</v>
+        <v>0.70414201183432</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J30" t="n">
-        <v>0.031</v>
+        <v>0.0178179733622989</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0016141360602402</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0011491879959249</v>
+        <v>-0.0001504890411767</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0020908959945857</v>
+        <v>0.0001840237533115</v>
       </c>
       <c r="N30" t="n">
-        <v>5.20689051690386</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.992918260088721</v>
+        <v>0.0187142965355118</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.29940119760479</v>
       </c>
       <c r="H31" t="n">
-        <v>0.682926829268293</v>
+        <v>0.203592814371257</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>130.5</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>-5.98906885992756</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-10.1306795889867</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-2.23215058684891</v>
+        <v>0.0001665011991364</v>
       </c>
       <c r="N31" t="n">
-        <v>-4.58932479687935</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3291,32 +3291,32 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8821323239282099</v>
+        <v>0.009502494349951001</v>
       </c>
       <c r="G32" t="n">
-        <v>0.446540880503145</v>
+        <v>0.317365269461078</v>
       </c>
       <c r="H32" t="n">
-        <v>0.691823899371069</v>
+        <v>0.640718562874252</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0144965952250043</v>
+        <v>0.197</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0003863503859681</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0014793369292359</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,35 +3382,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0518838025386802</v>
+        <v>0.966560935761268</v>
       </c>
       <c r="G33" t="n">
-        <v>0.316129032258064</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.219354838709677</v>
+        <v>0.514450867052023</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.008</v>
+        <v>8.17</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0122092716396902</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0001250712715225</v>
+        <v>0.0203829552413284</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.149440289347493</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Tura_1b</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3469,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0517321397793211</v>
+        <v>0.06969706138162531</v>
       </c>
       <c r="G34" t="n">
-        <v>0.335483870967742</v>
+        <v>0.0965909090909091</v>
       </c>
       <c r="H34" t="n">
-        <v>0.625806451612903</v>
+        <v>0.801136363636364</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>0.177</v>
+        <v>0.2335</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.0006901948120052</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-0.0001852317596207</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.0029993939770539</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.295586643257084</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.99924548081493</v>
+        <v>0.267585077309727</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.52760736196319</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>8.19</v>
+        <v>0.77</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0199408553230208</v>
+        <v>0.0030545685235817</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0100294528118901</v>
+        <v>-0.0045223171156582</v>
       </c>
       <c r="M35" t="n">
-        <v>0.029987684729064</v>
+        <v>0.0108707662877026</v>
       </c>
       <c r="N35" t="n">
-        <v>0.243478086972171</v>
+        <v>0.396697210854767</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Tura_1b</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3651,35 +3651,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.303515969103436</v>
+        <v>0.0002118336511262</v>
       </c>
       <c r="G36" t="n">
-        <v>0.103658536585366</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.75</v>
+        <v>0.670454545454545</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1825</v>
+        <v>0.095</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0029488170108371</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0005378215948685</v>
+        <v>0.0017966343346209</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0013378004183812</v>
+        <v>0.0046924717825151</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>3.1040179061444</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.8288712828945199</v>
+        <v>0.208685842180059</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H37" t="n">
-        <v>0.731707317073171</v>
+        <v>0.931818181818182</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.7465000000000001</v>
+        <v>12.45</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0042323983176264</v>
+        <v>0.0720781789636647</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0110929542361271</v>
+        <v>-0.0597277582732109</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0029559592583081</v>
+        <v>0.294598040601169</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.566965615221229</v>
+        <v>0.578941196495298</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3822,46 +3822,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.008244328363835001</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.018915918518047</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.664634146341463</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.091</v>
+        <v>0.267</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0018241038736573</v>
+        <v>-0.0307435192991517</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0003480412096167</v>
+        <v>-0.0467014127212239</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0029354253016417</v>
+        <v>-0.0192313429135704</v>
       </c>
       <c r="N38" t="n">
-        <v>2.00450975127184</v>
+        <v>-11.5144267038021</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3899,11 +3899,7 @@
           <t>Tura_1b</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,14 +3909,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3928,31 +3924,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.716392610204431</v>
+        <v>0.14366653483575</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0060975609756097</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.932926829268293</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>9.880000000000001</v>
+        <v>87</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0405273656239514</v>
+        <v>-1.12402533850079</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.181121758417935</v>
+        <v>-3.10118590117756</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0826111329724985</v>
+        <v>0.288267150688051</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.410196008339589</v>
+        <v>-1.29198314770205</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3957,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3990,11 +3986,7 @@
           <t>Tura_1b</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4004,11 +3996,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -4019,7 +4011,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.59675202974633</v>
+        <v>0.767243915062907</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4031,19 +4023,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2</v>
+        <v>4.23</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0043101409233761</v>
+        <v>0.0561129243793506</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0535712160495521</v>
+        <v>-0.0422464532403375</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0300277911222519</v>
+        <v>0.149054894510237</v>
       </c>
       <c r="N40" t="n">
-        <v>2.15507046168808</v>
+        <v>1.32654667563477</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4044,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4082,441 +4074,6 @@
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Turakina at ONeills Bridge</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>5</v>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.59675202974633</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>78.56999999999999</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1.53410021244181</v>
-      </c>
-      <c r="L41" t="n">
-        <v>-12.2382957866164</v>
-      </c>
-      <c r="M41" t="n">
-        <v>6.97486617805709</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1.95252667995649</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
-        <v>1790573</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5566998</v>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>Turakina</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>Tura_1b</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Turakina at ONeills Bridge</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>5</v>
-      </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.95679463351315</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4.169</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.209770510872874</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.0473168910484294</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.33837625750905</v>
-      </c>
-      <c r="N42" t="n">
-        <v>5.03167452321598</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Extremely likely improving</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>1790573</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5566998</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>Turakina</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>Tura_1b</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Turakina at ONeills Bridge</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>10</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>0.015911563693245</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.2775</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-0.02226728844404</v>
-      </c>
-      <c r="L43" t="n">
-        <v>-0.0362900358203877</v>
-      </c>
-      <c r="M43" t="n">
-        <v>-0.013922367957481</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-8.024248087942359</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Extremely unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>1790573</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5566998</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>Turakina</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>Tura_1b</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Turakina at ONeills Bridge</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>10</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>0.158988088490775</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>88</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-0.609586195054947</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-2.55828352839405</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.370833898195588</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-0.692711585289712</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>1790573</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5566998</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>Turakina</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Tura_1b</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Turakina at ONeills Bridge</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>10</v>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0.735200595787496</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.025320623916811</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-0.0310045278447748</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.106045737605084</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.598596310090095</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>1790573</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5566998</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>Turakina</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Tura_1b</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/TurakinaatONeillsBridge_0c38dab71b.xlsx
+++ b/trend_results/Rivers/TurakinaatONeillsBridge_0c38dab71b.xlsx
@@ -148,31 +148,31 @@
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
     <t>Exceptionally unlikely increasing</t>
   </si>
   <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
     <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
   </si>
   <si>
     <t>Extremely likely increasing</t>
@@ -654,31 +654,31 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.000454738109657</v>
+        <v>0.000255650194796</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.7</v>
+        <v>0.704545454545455</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.29</v>
+        <v>0.1225</v>
       </c>
       <c r="K2">
-        <v>-0.118642691415313</v>
+        <v>-0.0919881738900634</v>
       </c>
       <c r="L2">
-        <v>-0.186759581587967</v>
+        <v>-0.163889153503311</v>
       </c>
       <c r="M2">
-        <v>-0.0565723088951119</v>
+        <v>-0.0357655318207992</v>
       </c>
       <c r="N2">
-        <v>-40.9112729018321</v>
+        <v>-75.0923868490314</v>
       </c>
       <c r="O2" t="s">
         <v>42</v>
@@ -725,7 +725,7 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.001302608689696</v>
+        <v>0.154398282999599</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.695</v>
+        <v>10.6</v>
       </c>
       <c r="K3">
-        <v>-0.38870843337335</v>
+        <v>-0.145954595583291</v>
       </c>
       <c r="L3">
-        <v>-0.587684269781008</v>
+        <v>-0.381304945054946</v>
       </c>
       <c r="M3">
-        <v>-0.18771132317784</v>
+        <v>0.0790710895340728</v>
       </c>
       <c r="N3">
-        <v>-3.63448745557129</v>
+        <v>-1.37693014701218</v>
       </c>
       <c r="O3" t="s">
         <v>42</v>
@@ -796,7 +796,7 @@
         <v>39</v>
       </c>
       <c r="F4">
-        <v>0.06739856441563311</v>
+        <v>0.756759784413691</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -811,16 +811,16 @@
         <v>0.039</v>
       </c>
       <c r="K4">
-        <v>0.0016546396909437</v>
+        <v>-0.0009606672224612</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-0.0034601881858602</v>
       </c>
       <c r="M4">
-        <v>0.0037277375157212</v>
+        <v>0.0012573149741824</v>
       </c>
       <c r="N4">
-        <v>4.24266587421485</v>
+        <v>-2.46324928836224</v>
       </c>
       <c r="O4" t="s">
         <v>42</v>
@@ -867,31 +867,31 @@
         <v>39</v>
       </c>
       <c r="F5">
-        <v>0.0319821596906557</v>
+        <v>0.174529018653743</v>
       </c>
       <c r="G5">
         <v>0.0175438596491228</v>
       </c>
       <c r="H5">
-        <v>0.789473684210526</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>91</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K5">
-        <v>36.9276917663617</v>
+        <v>8.156126901022191</v>
       </c>
       <c r="L5">
-        <v>2.18900527272037</v>
+        <v>-8.85396043481121</v>
       </c>
       <c r="M5">
-        <v>144.084371531502</v>
+        <v>67.6389350642293</v>
       </c>
       <c r="N5">
-        <v>40.579881061936</v>
+        <v>9.439961690997899</v>
       </c>
       <c r="O5" t="s">
         <v>42</v>
@@ -938,31 +938,31 @@
         <v>39</v>
       </c>
       <c r="F6">
-        <v>0.106985443243851</v>
+        <v>0.384990556991762</v>
       </c>
       <c r="G6">
-        <v>0.384615384615385</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0210734973128914</v>
+        <v>0.0213716572687896</v>
       </c>
       <c r="K6">
-        <v>0.0006905248883552</v>
+        <v>0.0004947848422944</v>
       </c>
       <c r="L6">
-        <v>-0.0006389585057478</v>
+        <v>-0.0017871811810754</v>
       </c>
       <c r="M6">
-        <v>0.0053438507321381</v>
+        <v>0.0039499514398067</v>
       </c>
       <c r="N6">
-        <v>3.27674556388356</v>
+        <v>2.31514494206801</v>
       </c>
       <c r="O6" t="s">
         <v>42</v>
@@ -1006,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>0.123938596981719</v>
+        <v>0.8833927621359891</v>
       </c>
       <c r="G7">
-        <v>0.245614035087719</v>
+        <v>0.298245614035088</v>
       </c>
       <c r="H7">
-        <v>0.368421052631579</v>
+        <v>0.315789473684211</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1024,22 +1024,22 @@
         <v>0.01</v>
       </c>
       <c r="K7">
-        <v>0.0005005167529838</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-0.0017004586271609</v>
       </c>
       <c r="M7">
-        <v>0.002094972426624</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>5.00516752983858</v>
+        <v>0</v>
       </c>
       <c r="O7" t="s">
         <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q7">
         <v>1790573</v>
@@ -1077,16 +1077,16 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>0.0041884701961588</v>
+        <v>0.595309756271299</v>
       </c>
       <c r="G8">
-        <v>0.245614035087719</v>
+        <v>0.280701754385965</v>
       </c>
       <c r="H8">
-        <v>0.719298245614035</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1095,22 +1095,22 @@
         <v>0.268</v>
       </c>
       <c r="K8">
-        <v>0.0228812644869546</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0005773578214252</v>
+        <v>-0.0135912081562065</v>
       </c>
       <c r="M8">
-        <v>0.0594552845954309</v>
+        <v>0.0012740085893333</v>
       </c>
       <c r="N8">
-        <v>8.53778525632635</v>
+        <v>0</v>
       </c>
       <c r="O8" t="s">
         <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q8">
         <v>1790573</v>
@@ -1151,37 +1151,37 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.0001768306135849</v>
+        <v>0.0078083289289619</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.8545454545454541</v>
+        <v>0.87037037037037</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.25</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="K9">
-        <v>-0.118963468309859</v>
+        <v>-0.08396551724137941</v>
       </c>
       <c r="L9">
-        <v>-0.173928571428572</v>
+        <v>-0.149358191973157</v>
       </c>
       <c r="M9">
-        <v>-0.0698980308776833</v>
+        <v>-0.0263672301366526</v>
       </c>
       <c r="N9">
-        <v>-1.4419814340589</v>
+        <v>-1.02147831193892</v>
       </c>
       <c r="O9" t="s">
         <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q9">
         <v>1790573</v>
@@ -1219,37 +1219,37 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.0010457463302387</v>
+        <v>0.325073722047427</v>
       </c>
       <c r="G10">
-        <v>0.0526315789473684</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0.929824561403509</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.307</v>
+        <v>0.311</v>
       </c>
       <c r="K10">
-        <v>0.0337822802197802</v>
+        <v>0.0009386189468426</v>
       </c>
       <c r="L10">
-        <v>0.0072055585851925</v>
+        <v>-0.0159020997189042</v>
       </c>
       <c r="M10">
-        <v>0.0723460054293012</v>
+        <v>0.0155582311558658</v>
       </c>
       <c r="N10">
-        <v>11.0040000715897</v>
+        <v>0.301806735319174</v>
       </c>
       <c r="O10" t="s">
         <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q10">
         <v>1790573</v>
@@ -1290,13 +1290,13 @@
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.0002532707423461</v>
+        <v>0.113238033021743</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.87719298245614</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1305,22 +1305,22 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="K11">
-        <v>0.125160942488557</v>
+        <v>0.0450345049687155</v>
       </c>
       <c r="L11">
-        <v>0.08133396031212051</v>
+        <v>-0.0092612589286164</v>
       </c>
       <c r="M11">
-        <v>0.20970847439078</v>
+        <v>0.128268684054433</v>
       </c>
       <c r="N11">
-        <v>15.4519682084639</v>
+        <v>5.55981542823648</v>
       </c>
       <c r="O11" t="s">
         <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q11">
         <v>1790573</v>
@@ -1361,37 +1361,37 @@
         <v>39</v>
       </c>
       <c r="F12">
-        <v>6.63206440007515E-05</v>
+        <v>0.216270243374645</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.842105263157895</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.108</v>
+        <v>0.113</v>
       </c>
       <c r="K12">
-        <v>0.025977793040293</v>
+        <v>0.0060090706707086</v>
       </c>
       <c r="L12">
-        <v>0.0147917224747959</v>
+        <v>-0.00635783313267</v>
       </c>
       <c r="M12">
-        <v>0.0384609230599242</v>
+        <v>0.0278020063899341</v>
       </c>
       <c r="N12">
-        <v>24.0535120743454</v>
+        <v>5.31776165549434</v>
       </c>
       <c r="O12" t="s">
         <v>42</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q12">
         <v>1790573</v>
@@ -1432,37 +1432,37 @@
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.0041881354825442</v>
+        <v>0.286210696629499</v>
       </c>
       <c r="G13">
         <v>0.0175438596491228</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>15.1</v>
+        <v>15.8</v>
       </c>
       <c r="K13">
-        <v>4.69419156149302</v>
+        <v>0.502380460448642</v>
       </c>
       <c r="L13">
-        <v>0.866296989605402</v>
+        <v>-0.837780323662392</v>
       </c>
       <c r="M13">
-        <v>10.5505815298838</v>
+        <v>6.81759496916377</v>
       </c>
       <c r="N13">
-        <v>31.0873613343908</v>
+        <v>3.17962316739647</v>
       </c>
       <c r="O13" t="s">
         <v>42</v>
       </c>
       <c r="P13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q13">
         <v>1790573</v>
@@ -1503,37 +1503,37 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>0.050761803336555</v>
+        <v>0.026695740989878</v>
       </c>
       <c r="G14">
-        <v>0.009900990099009899</v>
+        <v>0.0102040816326531</v>
       </c>
       <c r="H14">
-        <v>0.6039603960396041</v>
+        <v>0.612244897959184</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.3</v>
+        <v>0.275</v>
       </c>
       <c r="K14">
-        <v>-0.012055406342008</v>
+        <v>-0.014969262295082</v>
       </c>
       <c r="L14">
-        <v>-0.040993896107986</v>
+        <v>-0.0413221172790302</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-0.0011079952124042</v>
       </c>
       <c r="N14">
-        <v>-4.01846878066932</v>
+        <v>-5.44336810730253</v>
       </c>
       <c r="O14" t="s">
         <v>42</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q14">
         <v>1790573</v>
@@ -1574,13 +1574,13 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.350584946985577</v>
+        <v>0.6493083124965769</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.860869565217391</v>
+        <v>0.895652173913044</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1589,22 +1589,22 @@
         <v>10.53</v>
       </c>
       <c r="K15">
-        <v>-0.0062414559125086</v>
+        <v>0.0137312030075187</v>
       </c>
       <c r="L15">
-        <v>-0.0466791327550695</v>
+        <v>-0.0299900243865919</v>
       </c>
       <c r="M15">
-        <v>0.0399855431355233</v>
+        <v>0.0542587107997774</v>
       </c>
       <c r="N15">
-        <v>-0.0592730855888759</v>
+        <v>0.130400788295524</v>
       </c>
       <c r="O15" t="s">
         <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q15">
         <v>1790573</v>
@@ -1639,19 +1639,19 @@
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>39</v>
       </c>
       <c r="F16">
-        <v>0.0170475562259164</v>
+        <v>0.132989666598576</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.47008547008547</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0.035</v>
       </c>
       <c r="K16">
-        <v>0.0010231092436974</v>
+        <v>0.000508350758042</v>
       </c>
       <c r="L16">
-        <v>0.0002794553574417</v>
+        <v>-0.0002540537355835</v>
       </c>
       <c r="M16">
-        <v>0.0019961230510772</v>
+        <v>0.0012963457523622</v>
       </c>
       <c r="N16">
-        <v>2.92316926770709</v>
+        <v>1.45243073726312</v>
       </c>
       <c r="O16" t="s">
         <v>42</v>
@@ -1710,19 +1710,19 @@
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
       </c>
       <c r="F17">
-        <v>0.0753098526049351</v>
+        <v>0.218989113146738</v>
       </c>
       <c r="G17">
         <v>0.008547008547008499</v>
       </c>
       <c r="H17">
-        <v>0.632478632478632</v>
+        <v>0.700854700854701</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1731,22 +1731,22 @@
         <v>110</v>
       </c>
       <c r="K17">
-        <v>6.14818753588392</v>
+        <v>2.8388341543514</v>
       </c>
       <c r="L17">
-        <v>-0.366995379478991</v>
+        <v>-3.29295731449917</v>
       </c>
       <c r="M17">
-        <v>20.2139708960142</v>
+        <v>17.864087174796</v>
       </c>
       <c r="N17">
-        <v>5.58926139625811</v>
+        <v>2.58075832213763</v>
       </c>
       <c r="O17" t="s">
         <v>42</v>
       </c>
       <c r="P17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q17">
         <v>1790573</v>
@@ -1787,31 +1787,31 @@
         <v>39</v>
       </c>
       <c r="F18">
-        <v>0.0026811429176816</v>
+        <v>0.0034318407348512</v>
       </c>
       <c r="G18">
-        <v>0.518181818181818</v>
+        <v>0.486238532110092</v>
       </c>
       <c r="H18">
-        <v>0.672727272727273</v>
+        <v>0.7064220183486239</v>
       </c>
       <c r="I18">
         <v>22</v>
       </c>
       <c r="J18">
-        <v>0.0124945244317745</v>
+        <v>0.01386109700527</v>
       </c>
       <c r="K18">
-        <v>0.0010017351777332</v>
+        <v>0.0008703162396018</v>
       </c>
       <c r="L18">
-        <v>8.72109157775074E-05</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0018985765097348</v>
+        <v>0.0016243317765338</v>
       </c>
       <c r="N18">
-        <v>8.01739340463253</v>
+        <v>6.27884098402145</v>
       </c>
       <c r="O18" t="s">
         <v>42</v>
@@ -1858,13 +1858,13 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.340875987317653</v>
+        <v>0.881560411320828</v>
       </c>
       <c r="G19">
-        <v>0.264957264957265</v>
+        <v>0.324786324786325</v>
       </c>
       <c r="H19">
-        <v>0.273504273504274</v>
+        <v>0.256410256410256</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-0.0004488479262672</v>
       </c>
       <c r="M19">
-        <v>0.0003498795116753</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>42</v>
       </c>
       <c r="P19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q19">
         <v>1790573</v>
@@ -1929,37 +1929,37 @@
         <v>40</v>
       </c>
       <c r="F20">
-        <v>0.0025762163561976</v>
+        <v>0.100849288844793</v>
       </c>
       <c r="G20">
-        <v>0.307692307692308</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H20">
-        <v>0.666666666666667</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20">
-        <v>0.218</v>
+        <v>0.224</v>
       </c>
       <c r="K20">
-        <v>0.0007024038461538</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.0091551005539771</v>
+        <v>0.0005038352046138</v>
       </c>
       <c r="N20">
-        <v>0.32220359915314</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
         <v>42</v>
       </c>
       <c r="P20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q20">
         <v>1790573</v>
@@ -2000,37 +2000,37 @@
         <v>39</v>
       </c>
       <c r="F21">
-        <v>0.857977698136852</v>
+        <v>0.773140579442045</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.608695652173913</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.19</v>
+        <v>8.205</v>
       </c>
       <c r="K21">
-        <v>0.0124829118250168</v>
+        <v>0.007966194111232099</v>
       </c>
       <c r="L21">
-        <v>-0.0045826100326412</v>
+        <v>-0.008778094099122001</v>
       </c>
       <c r="M21">
-        <v>0.0299876847290641</v>
+        <v>0.0236439334267173</v>
       </c>
       <c r="N21">
-        <v>0.152416505799961</v>
+        <v>0.0970895077542</v>
       </c>
       <c r="O21" t="s">
         <v>42</v>
       </c>
       <c r="P21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q21">
         <v>1790573</v>
@@ -2065,40 +2065,40 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22">
-        <v>0.0035592235256619</v>
+        <v>0.0933913396582229</v>
       </c>
       <c r="G22">
         <v>0.11965811965812</v>
       </c>
       <c r="H22">
-        <v>0.811965811965812</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="K22">
-        <v>0.0040137362637362</v>
+        <v>0.0004440729483282</v>
       </c>
       <c r="L22">
-        <v>0.0001612462220543</v>
+        <v>-0.0001665484584286</v>
       </c>
       <c r="M22">
-        <v>0.0124018573761661</v>
+        <v>0.0045222157866661</v>
       </c>
       <c r="N22">
-        <v>1.63825969948419</v>
+        <v>0.177629179331307</v>
       </c>
       <c r="O22" t="s">
         <v>42</v>
       </c>
       <c r="P22" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Q22">
         <v>1790573</v>
@@ -2139,13 +2139,13 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>0.0054917388871604</v>
+        <v>0.188329338089425</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.811965811965812</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2154,22 +2154,22 @@
         <v>0.76</v>
       </c>
       <c r="K23">
-        <v>0.0283397991784573</v>
+        <v>0.0132939035486806</v>
       </c>
       <c r="L23">
-        <v>0.012328766786974</v>
+        <v>-0.0049955480211969</v>
       </c>
       <c r="M23">
-        <v>0.0478479703237773</v>
+        <v>0.030103021978022</v>
       </c>
       <c r="N23">
-        <v>3.72892094453386</v>
+        <v>1.74919783535271</v>
       </c>
       <c r="O23" t="s">
         <v>42</v>
       </c>
       <c r="P23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q23">
         <v>1790573</v>
@@ -2204,43 +2204,43 @@
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>39</v>
       </c>
       <c r="F24">
-        <v>0.0004701098044984</v>
+        <v>0.0345300905047388</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.717948717948718</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="K24">
-        <v>0.0060021068692115</v>
+        <v>0.0033856324972737</v>
       </c>
       <c r="L24">
-        <v>0.0028683644211621</v>
+        <v>0.0006394973821377</v>
       </c>
       <c r="M24">
-        <v>0.0096493119061363</v>
+        <v>0.0069909942311093</v>
       </c>
       <c r="N24">
-        <v>5.884418499227</v>
+        <v>3.28702184201332</v>
       </c>
       <c r="O24" t="s">
         <v>42</v>
       </c>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q24">
         <v>1790573</v>
@@ -2281,13 +2281,13 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.0064679423579407</v>
+        <v>0.203690909492724</v>
       </c>
       <c r="G25">
         <v>0.008547008547008499</v>
       </c>
       <c r="H25">
-        <v>0.948717948717949</v>
+        <v>0.9401709401709401</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2296,22 +2296,22 @@
         <v>11.6</v>
       </c>
       <c r="K25">
-        <v>0.598225659690629</v>
+        <v>0.130446428571429</v>
       </c>
       <c r="L25">
-        <v>0.111524655539099</v>
+        <v>-0.0819088720402955</v>
       </c>
       <c r="M25">
-        <v>1.79101463683254</v>
+        <v>1.12587998911346</v>
       </c>
       <c r="N25">
-        <v>5.1571177559537</v>
+        <v>1.1245381773399</v>
       </c>
       <c r="O25" t="s">
         <v>42</v>
       </c>
       <c r="P25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q25">
         <v>1790573</v>
@@ -2349,40 +2349,40 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26">
-        <v>0.470290391740816</v>
+        <v>0.171270130667927</v>
       </c>
       <c r="G26">
-        <v>0.0201342281879195</v>
+        <v>0.0204081632653061</v>
       </c>
       <c r="H26">
-        <v>0.496644295302013</v>
+        <v>0.503401360544218</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="J26">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-0.0042769320843091</v>
       </c>
       <c r="L26">
-        <v>-0.0069857171778512</v>
+        <v>-0.0120514348778159</v>
       </c>
       <c r="M26">
-        <v>0.008765000093178399</v>
+        <v>0.0019979852165212</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>-1.42564402810304</v>
       </c>
       <c r="O26" t="s">
         <v>42</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q26">
         <v>1790573</v>
@@ -2423,31 +2423,31 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>0.267588849517939</v>
+        <v>0.7338822643281681</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.8497109826589599</v>
+        <v>0.84</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.49</v>
+        <v>10.44</v>
       </c>
       <c r="K27">
-        <v>-0.0100030862009898</v>
+        <v>0.0109166811054319</v>
       </c>
       <c r="L27">
-        <v>-0.0447519622758971</v>
+        <v>-0.0200017273184351</v>
       </c>
       <c r="M27">
-        <v>0.0199122795257001</v>
+        <v>0.0401373626373625</v>
       </c>
       <c r="N27">
-        <v>-0.095358305061867</v>
+        <v>0.10456591097157</v>
       </c>
       <c r="O27" t="s">
         <v>42</v>
@@ -2494,31 +2494,31 @@
         <v>39</v>
       </c>
       <c r="F28">
-        <v>4.76595813630854E-08</v>
+        <v>1.93980924252418E-06</v>
       </c>
       <c r="G28">
-        <v>0.0340909090909091</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H28">
-        <v>0.340909090909091</v>
+        <v>0.338983050847458</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="K28">
-        <v>0.001332320092807</v>
+        <v>0.0012115051572554</v>
       </c>
       <c r="L28">
-        <v>0.0009997127315574</v>
+        <v>0.0008544844719242</v>
       </c>
       <c r="M28">
-        <v>0.0016640224947352</v>
+        <v>0.0015387594153672</v>
       </c>
       <c r="N28">
-        <v>4.163500290022</v>
+        <v>3.67122774925895</v>
       </c>
       <c r="O28" t="s">
         <v>42</v>
@@ -2565,37 +2565,37 @@
         <v>39</v>
       </c>
       <c r="F29">
-        <v>0.881052154964866</v>
+        <v>0.829239163559916</v>
       </c>
       <c r="G29">
-        <v>0.0056818181818181</v>
+        <v>0.0056497175141242</v>
       </c>
       <c r="H29">
-        <v>0.676136363636364</v>
+        <v>0.706214689265537</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>144.5</v>
+        <v>131</v>
       </c>
       <c r="K29">
-        <v>-3.15691043707494</v>
+        <v>-1.92208132594071</v>
       </c>
       <c r="L29">
-        <v>-6.9424106515999</v>
+        <v>-6.221178603302</v>
       </c>
       <c r="M29">
-        <v>1.51276177867623</v>
+        <v>1.99888912283324</v>
       </c>
       <c r="N29">
-        <v>-2.18471310524217</v>
+        <v>-1.46723765338986</v>
       </c>
       <c r="O29" t="s">
         <v>42</v>
       </c>
       <c r="P29" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q29">
         <v>1790573</v>
@@ -2636,16 +2636,16 @@
         <v>41</v>
       </c>
       <c r="F30">
-        <v>0.558352428436659</v>
+        <v>0.639894808071282</v>
       </c>
       <c r="G30">
-        <v>0.42603550295858</v>
+        <v>0.420118343195266</v>
       </c>
       <c r="H30">
-        <v>0.70414201183432</v>
+        <v>0.698224852071006</v>
       </c>
       <c r="I30">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J30">
         <v>0.0178179733622989</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>-0.0001504890411767</v>
+        <v>-0.0002970895888375</v>
       </c>
       <c r="M30">
-        <v>0.0001840237533115</v>
+        <v>8.311389393237061E-05</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>42</v>
       </c>
       <c r="P30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q30">
         <v>1790573</v>
@@ -2707,19 +2707,19 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.0187142965355118</v>
+        <v>0.09545985129734449</v>
       </c>
       <c r="G31">
-        <v>0.29940119760479</v>
+        <v>0.322033898305085</v>
       </c>
       <c r="H31">
-        <v>0.203592814371257</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0001665011991364</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>42</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q31">
         <v>1790573</v>
@@ -2778,19 +2778,19 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.009502494349951001</v>
+        <v>0.056336201191441</v>
       </c>
       <c r="G32">
-        <v>0.317365269461078</v>
+        <v>0.338983050847458</v>
       </c>
       <c r="H32">
-        <v>0.640718562874252</v>
+        <v>0.621468926553672</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32">
-        <v>0.197</v>
+        <v>0.192</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.0014793369292359</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2808,7 +2808,7 @@
         <v>42</v>
       </c>
       <c r="P32" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Q32">
         <v>1790573</v>
@@ -2849,31 +2849,31 @@
         <v>39</v>
       </c>
       <c r="F33">
-        <v>0.966560935761268</v>
+        <v>0.967467811063221</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.514450867052023</v>
+        <v>0.528735632183908</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>8.17</v>
+        <v>8.19</v>
       </c>
       <c r="K33">
-        <v>0.0122092716396902</v>
+        <v>0.0107195265114459</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0.0203829552413284</v>
+        <v>0.0185503284615504</v>
       </c>
       <c r="N33">
-        <v>0.149440289347493</v>
+        <v>0.130885549590304</v>
       </c>
       <c r="O33" t="s">
         <v>42</v>
@@ -2914,40 +2914,40 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F34">
-        <v>0.06969706138162531</v>
+        <v>0.252650140490688</v>
       </c>
       <c r="G34">
-        <v>0.0965909090909091</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="H34">
-        <v>0.801136363636364</v>
+        <v>0.807909604519774</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>0.2335</v>
+        <v>0.228</v>
       </c>
       <c r="K34">
-        <v>0.0006901948120052</v>
+        <v>0.0001965428376932</v>
       </c>
       <c r="L34">
-        <v>-0.0001852317596207</v>
+        <v>-0.0003767003168658</v>
       </c>
       <c r="M34">
-        <v>0.0029993939770539</v>
+        <v>0.0014660109331687</v>
       </c>
       <c r="N34">
-        <v>0.295586643257084</v>
+        <v>0.0862029989882807</v>
       </c>
       <c r="O34" t="s">
         <v>42</v>
       </c>
       <c r="P34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q34">
         <v>1790573</v>
@@ -2988,13 +2988,13 @@
         <v>39</v>
       </c>
       <c r="F35">
-        <v>0.267585077309727</v>
+        <v>0.626383053313462</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.727272727272727</v>
+        <v>0.734463276836158</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0.77</v>
       </c>
       <c r="K35">
-        <v>0.0030545685235817</v>
+        <v>-0.0013817780580075</v>
       </c>
       <c r="L35">
-        <v>-0.0045223171156582</v>
+        <v>-0.0099700595563598</v>
       </c>
       <c r="M35">
-        <v>0.0108707662877026</v>
+        <v>0.006048660181078</v>
       </c>
       <c r="N35">
-        <v>0.396697210854767</v>
+        <v>-0.179451695845136</v>
       </c>
       <c r="O35" t="s">
         <v>42</v>
@@ -3059,13 +3059,13 @@
         <v>39</v>
       </c>
       <c r="F36">
-        <v>0.0002118336511262</v>
+        <v>0.0151749759127804</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.670454545454545</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3074,22 +3074,22 @@
         <v>0.095</v>
       </c>
       <c r="K36">
-        <v>0.0029488170108371</v>
+        <v>0.001980487784711</v>
       </c>
       <c r="L36">
-        <v>0.0017966343346209</v>
+        <v>0.0005670069535509</v>
       </c>
       <c r="M36">
-        <v>0.0046924717825151</v>
+        <v>0.0034785714285714</v>
       </c>
       <c r="N36">
-        <v>3.1040179061444</v>
+        <v>2.08472398390636</v>
       </c>
       <c r="O36" t="s">
         <v>42</v>
       </c>
       <c r="P36" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q36">
         <v>1790573</v>
@@ -3130,37 +3130,37 @@
         <v>39</v>
       </c>
       <c r="F37">
-        <v>0.208685842180059</v>
+        <v>0.740056542716053</v>
       </c>
       <c r="G37">
-        <v>0.0056818181818181</v>
+        <v>0.0056497175141242</v>
       </c>
       <c r="H37">
-        <v>0.931818181818182</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>12.45</v>
+        <v>12.2</v>
       </c>
       <c r="K37">
-        <v>0.0720781789636647</v>
+        <v>-0.0405273656239514</v>
       </c>
       <c r="L37">
-        <v>-0.0597277582732109</v>
+        <v>-0.171693332896023</v>
       </c>
       <c r="M37">
-        <v>0.294598040601169</v>
+        <v>0.117706243671431</v>
       </c>
       <c r="N37">
-        <v>0.578941196495298</v>
+        <v>-0.332191521507799</v>
       </c>
       <c r="O37" t="s">
         <v>42</v>
       </c>
       <c r="P37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q37">
         <v>1790573</v>
@@ -3201,7 +3201,7 @@
         <v>39</v>
       </c>
       <c r="F38">
-        <v>0.008244328363835001</v>
+        <v>0.087654040404137</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3216,22 +3216,22 @@
         <v>0.267</v>
       </c>
       <c r="K38">
-        <v>-0.0307435192991517</v>
+        <v>-0.0185194625620609</v>
       </c>
       <c r="L38">
-        <v>-0.0467014127212239</v>
+        <v>-0.0344701833916084</v>
       </c>
       <c r="M38">
-        <v>-0.0192313429135704</v>
+        <v>0.0028245639560631</v>
       </c>
       <c r="N38">
-        <v>-11.5144267038021</v>
+        <v>-6.93612830039733</v>
       </c>
       <c r="O38" t="s">
         <v>42</v>
       </c>
       <c r="P38" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Q38">
         <v>1790573</v>
@@ -3269,37 +3269,37 @@
         <v>39</v>
       </c>
       <c r="F39">
-        <v>0.14366653483575</v>
+        <v>0.264684053092399</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.777777777777778</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K39">
-        <v>-1.12402533850079</v>
+        <v>-0.634738896985468</v>
       </c>
       <c r="L39">
-        <v>-3.10118590117756</v>
+        <v>-2.64793283770174</v>
       </c>
       <c r="M39">
-        <v>0.288267150688051</v>
+        <v>0.638602740282075</v>
       </c>
       <c r="N39">
-        <v>-1.29198314770205</v>
+        <v>-0.755641544030319</v>
       </c>
       <c r="O39" t="s">
         <v>42</v>
       </c>
       <c r="P39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q39">
         <v>1790573</v>
@@ -3337,7 +3337,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>0.767243915062907</v>
+        <v>0.377227088747045</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3352,22 +3352,22 @@
         <v>4.23</v>
       </c>
       <c r="K40">
-        <v>0.0561129243793506</v>
+        <v>-0.0198880467280807</v>
       </c>
       <c r="L40">
-        <v>-0.0422464532403375</v>
+        <v>-0.08597632388029849</v>
       </c>
       <c r="M40">
-        <v>0.149054894510237</v>
+        <v>0.108490403804563</v>
       </c>
       <c r="N40">
-        <v>1.32654667563477</v>
+        <v>-0.470166589316328</v>
       </c>
       <c r="O40" t="s">
         <v>42</v>
       </c>
       <c r="P40" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q40">
         <v>1790573</v>
